--- a/scripts/data/npc_config_Table.xlsx
+++ b/scripts/data/npc_config_Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id[!][int]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,8 +61,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>name[][str]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1</t>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -73,16 +81,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1,1</t>
+      <t>tore</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>name[][str]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
+    <t>300;0;200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50;21;50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +429,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -457,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -476,81 +484,47 @@
       <c r="A3">
         <v>1001</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/scripts/data/npc_config_Table.xlsx
+++ b/scripts/data/npc_config_Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>id[!][int]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>所在场景spaceUID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos[][pos3D]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -91,6 +87,18 @@
   </si>
   <si>
     <t>50;21;50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos[.][pos3D]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir[.][pos3D]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;180;0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,26 +434,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -454,18 +463,21 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -474,18 +486,21 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -494,18 +509,21 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -514,17 +532,22 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/scripts/data/npc_config_Table.xlsx
+++ b/scripts/data/npc_config_Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6BEFEF22-C783-4601-9197-7447B1FE2C1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@Npc配置表#npc_config_Table" sheetId="1" r:id="rId1"/>
@@ -65,23 +66,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tore</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>300;0;200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,13 +83,17 @@
   </si>
   <si>
     <t>0;180;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,11 +421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,10 +451,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -500,7 +488,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -509,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>1001</v>
@@ -523,7 +511,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -532,10 +520,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>1001</v>

--- a/scripts/data/npc_config_Table.xlsx
+++ b/scripts/data/npc_config_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6BEFEF22-C783-4601-9197-7447B1FE2C1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03D79339-2CE8-440A-89F5-CC118C1FA4F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>300;0;200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50;21;50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,6 +83,10 @@
   </si>
   <si>
     <t>商人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>386;0;283</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +425,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,10 +451,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -488,7 +488,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -497,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1001</v>
@@ -511,7 +511,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -520,10 +520,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>1001</v>
